--- a/excel/hmd_Continuous_hermite.xlsx
+++ b/excel/hmd_Continuous_hermite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamilton\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BB9E92-840C-4149-9548-AC09F9439281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4129AA-4C0B-41BB-AA52-942828F242DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7815" yWindow="1350" windowWidth="18285" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="均布_L2_4-32" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>稀疏矩阵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>没稀疏矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,44 +367,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:4" dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>-0.3010299956639812</v>
       </c>
       <c r="B2">
-        <v>-0.93282094070715371</v>
+        <v>-3.2269056356781567</v>
+      </c>
+      <c r="C2">
+        <v>-4.499404210536725</v>
       </c>
     </row>
     <row r="3" spans="1:4" dyDescent="0.2">
       <c r="A3">
-        <v>-0.3010299956639812</v>
+        <v>-0.6020599913279624</v>
       </c>
       <c r="B3">
-        <v>-1.1663174277247366</v>
+        <v>-4.128915681612209</v>
+      </c>
+      <c r="C3">
+        <v>-5.702238865516202</v>
       </c>
     </row>
     <row r="4" spans="1:4" dyDescent="0.2">
       <c r="A4">
-        <v>-0.6020599913279624</v>
+        <v>-0.9030899869919435</v>
       </c>
       <c r="B4">
-        <v>-1.6320796728985458</v>
+        <v>-5.0317366202915625</v>
+      </c>
+      <c r="C4">
+        <v>-6.906038625056015</v>
       </c>
     </row>
     <row r="5" spans="1:4" dyDescent="0.2">
       <c r="A5">
-        <v>-0.90308998699194354</v>
+        <v>-1.2041199826559248</v>
       </c>
       <c r="B5">
-        <v>-1.3731747273303956</v>
+        <v>-5.934759360310866</v>
+      </c>
+      <c r="C5">
+        <v>-8.110078538462968</v>
       </c>
     </row>
     <row r="9" spans="1:4" dyDescent="0.2">
@@ -477,42 +505,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBDBE20-7100-4531-9920-E554D9241B4A}">
   <dimension ref="A2:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" dyDescent="0.2">
       <c r="A2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>-3.2244574172544906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.6595836895758127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" dyDescent="0.2">
       <c r="A3">
         <v>-0.3010299956639812</v>
       </c>
       <c r="B3">
-        <v>-3.6676299031629673</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-3.8662848713064202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" dyDescent="0.2">
       <c r="A4">
         <v>-0.6020599913279624</v>
       </c>
       <c r="B4">
-        <v>-2.3576736026578837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-1.3718301115230536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" dyDescent="0.2">
       <c r="A5">
-        <v>-0.9030899869919435</v>
+        <v>-0.90308998699194354</v>
       </c>
       <c r="B5">
-        <v>-0.47525456039204184</v>
+        <v>-2.0380758100427934</v>
       </c>
     </row>
     <row r="10" spans="1:4" dyDescent="0.2">
